--- a/src/analysis_examples/circadb/results_jtk/cosinor_10354389_slc39a10_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10354389_slc39a10_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27460593866550476, 0.386345585273978]</t>
+          <t>[0.27323721412904184, 0.3877143098104409]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.603983860818062e-11</v>
+        <v>7.203970753266731e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>4.603983860818062e-11</v>
+        <v>7.203970753266731e-11</v>
       </c>
       <c r="O2" t="n">
         <v>0.08176317216550011</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4112819325056097, 0.48416463253157843]</t>
+          <t>[0.4112829798588297, 0.4841635851783584]</t>
         </is>
       </c>
       <c r="U2" t="n">
